--- a/data/pca/factorExposure/factorExposure_2015-10-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02052303005656405</v>
+        <v>0.01907653281571405</v>
       </c>
       <c r="C2">
-        <v>0.03061508908236707</v>
+        <v>0.03863652219715595</v>
       </c>
       <c r="D2">
-        <v>0.1166179421034074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1293750129738965</v>
+      </c>
+      <c r="E2">
+        <v>-0.03807951365457801</v>
+      </c>
+      <c r="F2">
+        <v>0.02912596230620944</v>
+      </c>
+      <c r="G2">
+        <v>0.06871556708701096</v>
+      </c>
+      <c r="H2">
+        <v>-0.08494143013061387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01110114681908872</v>
+        <v>0.006519345262848242</v>
       </c>
       <c r="C3">
-        <v>0.04517588674467588</v>
+        <v>0.03627566143025231</v>
       </c>
       <c r="D3">
-        <v>0.08234643141926669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05820501708076629</v>
+      </c>
+      <c r="E3">
+        <v>-0.06238010645605252</v>
+      </c>
+      <c r="F3">
+        <v>0.05342033484045437</v>
+      </c>
+      <c r="G3">
+        <v>0.1160677955503217</v>
+      </c>
+      <c r="H3">
+        <v>-0.0974289532565764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04426813771424645</v>
+        <v>0.04408125052683999</v>
       </c>
       <c r="C4">
-        <v>0.06240906023633111</v>
+        <v>0.07546676010899789</v>
       </c>
       <c r="D4">
-        <v>0.1272805788569524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1521310527129335</v>
+      </c>
+      <c r="E4">
+        <v>-0.05807925006362345</v>
+      </c>
+      <c r="F4">
+        <v>0.04383304533091144</v>
+      </c>
+      <c r="G4">
+        <v>-0.04689457968079216</v>
+      </c>
+      <c r="H4">
+        <v>-0.01634598831194636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03496262227147895</v>
+        <v>0.03690425759713862</v>
       </c>
       <c r="C6">
-        <v>0.02343033499935751</v>
+        <v>0.03055824604860798</v>
       </c>
       <c r="D6">
-        <v>0.155677565155229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1421876412910034</v>
+      </c>
+      <c r="E6">
+        <v>-0.006563117881912992</v>
+      </c>
+      <c r="F6">
+        <v>0.03089307853177488</v>
+      </c>
+      <c r="G6">
+        <v>-0.01007301413214335</v>
+      </c>
+      <c r="H6">
+        <v>-0.05705325019973422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01892373691525272</v>
+        <v>0.01504817016390972</v>
       </c>
       <c r="C7">
-        <v>0.02871719883601826</v>
+        <v>0.03443294843166483</v>
       </c>
       <c r="D7">
-        <v>0.112756183835865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09919847234682044</v>
+      </c>
+      <c r="E7">
+        <v>0.002587580797905852</v>
+      </c>
+      <c r="F7">
+        <v>0.03558867522237568</v>
+      </c>
+      <c r="G7">
+        <v>0.02571417671574397</v>
+      </c>
+      <c r="H7">
+        <v>-0.06911545134503463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009876895465526465</v>
+        <v>0.007360611748808357</v>
       </c>
       <c r="C8">
-        <v>0.03476424932097223</v>
+        <v>0.03706729088968803</v>
       </c>
       <c r="D8">
-        <v>0.06595337278298091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07732286133573629</v>
+      </c>
+      <c r="E8">
+        <v>-0.02753105521188938</v>
+      </c>
+      <c r="F8">
+        <v>0.06751885184885341</v>
+      </c>
+      <c r="G8">
+        <v>0.04332518900577099</v>
+      </c>
+      <c r="H8">
+        <v>-0.0510245177177344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03760292320796892</v>
+        <v>0.03615050817137075</v>
       </c>
       <c r="C9">
-        <v>0.05614255061843696</v>
+        <v>0.06641982664200509</v>
       </c>
       <c r="D9">
-        <v>0.1137350298641386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1256318785353887</v>
+      </c>
+      <c r="E9">
+        <v>-0.04039112659814254</v>
+      </c>
+      <c r="F9">
+        <v>0.02451632682061474</v>
+      </c>
+      <c r="G9">
+        <v>-0.02699607193285095</v>
+      </c>
+      <c r="H9">
+        <v>-0.01394211044839861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1171568997747883</v>
+        <v>0.1560075229418806</v>
       </c>
       <c r="C10">
-        <v>-0.1890911927165121</v>
+        <v>-0.1849836320164057</v>
       </c>
       <c r="D10">
-        <v>0.008369945786553644</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0134544887888609</v>
+      </c>
+      <c r="E10">
+        <v>-0.04377048529800082</v>
+      </c>
+      <c r="F10">
+        <v>0.04724308201757144</v>
+      </c>
+      <c r="G10">
+        <v>-0.00323807863298325</v>
+      </c>
+      <c r="H10">
+        <v>0.04515683216117666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.030350332441305</v>
+        <v>0.02759437280707673</v>
       </c>
       <c r="C11">
-        <v>0.04321641461903232</v>
+        <v>0.04703479704067784</v>
       </c>
       <c r="D11">
-        <v>0.062996886405439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05940548368985195</v>
+      </c>
+      <c r="E11">
+        <v>0.01562177057251235</v>
+      </c>
+      <c r="F11">
+        <v>-0.002702435033741992</v>
+      </c>
+      <c r="G11">
+        <v>0.005076058890558652</v>
+      </c>
+      <c r="H11">
+        <v>-0.03275580689661256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03717369744936279</v>
+        <v>0.0324995618159975</v>
       </c>
       <c r="C12">
-        <v>0.04516807247354835</v>
+        <v>0.04937440053221927</v>
       </c>
       <c r="D12">
-        <v>0.06284619578501802</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05599834493534457</v>
+      </c>
+      <c r="E12">
+        <v>0.006249448731984525</v>
+      </c>
+      <c r="F12">
+        <v>-0.007152443085017779</v>
+      </c>
+      <c r="G12">
+        <v>0.01284237367079445</v>
+      </c>
+      <c r="H12">
+        <v>-0.03733233401841243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01101316316743962</v>
+        <v>0.01533756326940736</v>
       </c>
       <c r="C13">
-        <v>0.03483119065420336</v>
+        <v>0.04086373238927613</v>
       </c>
       <c r="D13">
-        <v>0.1429874425848786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1566787728129779</v>
+      </c>
+      <c r="E13">
+        <v>-0.01506332260503114</v>
+      </c>
+      <c r="F13">
+        <v>0.06442108153537233</v>
+      </c>
+      <c r="G13">
+        <v>0.03771169335506818</v>
+      </c>
+      <c r="H13">
+        <v>-0.05899801824271748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.005274946870953231</v>
+        <v>0.007671542937593861</v>
       </c>
       <c r="C14">
-        <v>0.0229068250569929</v>
+        <v>0.02443639971069828</v>
       </c>
       <c r="D14">
-        <v>0.09815529954043854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09912696190655479</v>
+      </c>
+      <c r="E14">
+        <v>-0.01620032827425108</v>
+      </c>
+      <c r="F14">
+        <v>0.01953359640857857</v>
+      </c>
+      <c r="G14">
+        <v>0.02147132297776207</v>
+      </c>
+      <c r="H14">
+        <v>-0.0908082356837534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002646775818206349</v>
+        <v>0.001566973538067101</v>
       </c>
       <c r="C15">
-        <v>0.005200142023785803</v>
+        <v>0.01224044386752699</v>
       </c>
       <c r="D15">
-        <v>0.007998978782674712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03728796597146664</v>
+      </c>
+      <c r="E15">
+        <v>-0.006262718089313836</v>
+      </c>
+      <c r="F15">
+        <v>0.002905289540427644</v>
+      </c>
+      <c r="G15">
+        <v>0.004099140158219121</v>
+      </c>
+      <c r="H15">
+        <v>-0.02030491176581306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03066809935466958</v>
+        <v>0.02806153094235148</v>
       </c>
       <c r="C16">
-        <v>0.0448506951203448</v>
+        <v>0.04716093770331836</v>
       </c>
       <c r="D16">
-        <v>0.07014900078765371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06303680463371811</v>
+      </c>
+      <c r="E16">
+        <v>-0.000999504335339131</v>
+      </c>
+      <c r="F16">
+        <v>0.001770443064259103</v>
+      </c>
+      <c r="G16">
+        <v>0.007209034655780839</v>
+      </c>
+      <c r="H16">
+        <v>-0.04974878230592828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01066842833440536</v>
+        <v>0.007798288958266765</v>
       </c>
       <c r="C19">
-        <v>0.03257755286433505</v>
+        <v>0.02787697611656102</v>
       </c>
       <c r="D19">
-        <v>0.1540242308492946</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1155916832866709</v>
+      </c>
+      <c r="E19">
+        <v>-0.04782889216782985</v>
+      </c>
+      <c r="F19">
+        <v>0.002167764097155942</v>
+      </c>
+      <c r="G19">
+        <v>0.03374118364325288</v>
+      </c>
+      <c r="H19">
+        <v>-0.05280116462220821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01334796803449544</v>
+        <v>0.01496644500959119</v>
       </c>
       <c r="C20">
-        <v>0.03188716359062475</v>
+        <v>0.03542394852672842</v>
       </c>
       <c r="D20">
-        <v>0.09649499674979437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1075488310085624</v>
+      </c>
+      <c r="E20">
+        <v>-0.03798229533534255</v>
+      </c>
+      <c r="F20">
+        <v>0.01583779997008249</v>
+      </c>
+      <c r="G20">
+        <v>0.002276487195280362</v>
+      </c>
+      <c r="H20">
+        <v>-0.05447957401322807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.009077878068894872</v>
+        <v>0.009030675384073988</v>
       </c>
       <c r="C21">
-        <v>0.03507371143159984</v>
+        <v>0.03900804830053337</v>
       </c>
       <c r="D21">
-        <v>0.1481797919578077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1457903962323715</v>
+      </c>
+      <c r="E21">
+        <v>-0.06890134659760541</v>
+      </c>
+      <c r="F21">
+        <v>0.04354047560041063</v>
+      </c>
+      <c r="G21">
+        <v>0.01591473014608747</v>
+      </c>
+      <c r="H21">
+        <v>-0.08179739900037063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001559810784318246</v>
+        <v>0.006861864681672224</v>
       </c>
       <c r="C22">
-        <v>0.04788375550767017</v>
+        <v>0.04366246190505348</v>
       </c>
       <c r="D22">
-        <v>0.1118877476509472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1659387883396548</v>
+      </c>
+      <c r="E22">
+        <v>-0.008885989432360946</v>
+      </c>
+      <c r="F22">
+        <v>0.09489702835717746</v>
+      </c>
+      <c r="G22">
+        <v>0.06557439626711484</v>
+      </c>
+      <c r="H22">
+        <v>0.01741010300078258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001407146738715799</v>
+        <v>0.007003721113054696</v>
       </c>
       <c r="C23">
-        <v>0.04818439032979737</v>
+        <v>0.04414795612331684</v>
       </c>
       <c r="D23">
-        <v>0.1114178309296269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.165280262062696</v>
+      </c>
+      <c r="E23">
+        <v>-0.009336950222813323</v>
+      </c>
+      <c r="F23">
+        <v>0.09507279073750732</v>
+      </c>
+      <c r="G23">
+        <v>0.06472055986073767</v>
+      </c>
+      <c r="H23">
+        <v>0.01792336454741864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03435328555630313</v>
+        <v>0.02949316074850363</v>
       </c>
       <c r="C24">
-        <v>0.05680663581755103</v>
+        <v>0.05955420130716806</v>
       </c>
       <c r="D24">
-        <v>0.06988894788588189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0649259021396867</v>
+      </c>
+      <c r="E24">
+        <v>-0.0006407094843219695</v>
+      </c>
+      <c r="F24">
+        <v>0.001973168426390001</v>
+      </c>
+      <c r="G24">
+        <v>0.0008081347557314522</v>
+      </c>
+      <c r="H24">
+        <v>-0.05805908399565129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03847236778048402</v>
+        <v>0.03372691539892805</v>
       </c>
       <c r="C25">
-        <v>0.05336262923392205</v>
+        <v>0.05628398508613704</v>
       </c>
       <c r="D25">
-        <v>0.06771802071567821</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06227103239568733</v>
+      </c>
+      <c r="E25">
+        <v>-0.004092771301442282</v>
+      </c>
+      <c r="F25">
+        <v>0.001894850880765715</v>
+      </c>
+      <c r="G25">
+        <v>0.008249113635588824</v>
+      </c>
+      <c r="H25">
+        <v>-0.02832907502220613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.0147149816713247</v>
+        <v>0.01545059624636043</v>
       </c>
       <c r="C26">
-        <v>0.01171048782800363</v>
+        <v>0.01914907345797535</v>
       </c>
       <c r="D26">
-        <v>0.06208099230371537</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06643418784656351</v>
+      </c>
+      <c r="E26">
+        <v>-0.01471647986718532</v>
+      </c>
+      <c r="F26">
+        <v>0.02036301786615405</v>
+      </c>
+      <c r="G26">
+        <v>0.008390095087827556</v>
+      </c>
+      <c r="H26">
+        <v>-0.05770007761441984</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1737607640485918</v>
+        <v>0.2266948947826348</v>
       </c>
       <c r="C28">
-        <v>-0.2609281004906918</v>
+        <v>-0.2496204865912369</v>
       </c>
       <c r="D28">
-        <v>0.0009410218413062336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.002867167228880538</v>
+      </c>
+      <c r="E28">
+        <v>-0.0731333020023652</v>
+      </c>
+      <c r="F28">
+        <v>0.03794372246327618</v>
+      </c>
+      <c r="G28">
+        <v>-0.02952958831756505</v>
+      </c>
+      <c r="H28">
+        <v>0.06509322495945162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001090039101039803</v>
+        <v>0.004648084760566953</v>
       </c>
       <c r="C29">
-        <v>0.02141861844678235</v>
+        <v>0.02307736104808251</v>
       </c>
       <c r="D29">
-        <v>0.0868808178756369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.09632573273552866</v>
+      </c>
+      <c r="E29">
+        <v>-0.006966153950047933</v>
+      </c>
+      <c r="F29">
+        <v>0.03894059296164813</v>
+      </c>
+      <c r="G29">
+        <v>0.01305198020572153</v>
+      </c>
+      <c r="H29">
+        <v>-0.08715132758351445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02897839469072987</v>
+        <v>0.03407846504842946</v>
       </c>
       <c r="C30">
-        <v>0.05879912611035231</v>
+        <v>0.06650804636331464</v>
       </c>
       <c r="D30">
-        <v>0.1618605593033844</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1733998238675473</v>
+      </c>
+      <c r="E30">
+        <v>-0.01004146105801047</v>
+      </c>
+      <c r="F30">
+        <v>0.03349491296050514</v>
+      </c>
+      <c r="G30">
+        <v>-0.01245022665299463</v>
+      </c>
+      <c r="H30">
+        <v>-0.06804202930661767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06115156810746079</v>
+        <v>0.05037737422514779</v>
       </c>
       <c r="C31">
-        <v>0.07084573021164724</v>
+        <v>0.07931449383102257</v>
       </c>
       <c r="D31">
-        <v>0.06733582620979127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05374544163646042</v>
+      </c>
+      <c r="E31">
+        <v>-0.02047626836499684</v>
+      </c>
+      <c r="F31">
+        <v>0.03963891485525448</v>
+      </c>
+      <c r="G31">
+        <v>0.01364385664411321</v>
+      </c>
+      <c r="H31">
+        <v>-0.02310319190295029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01532392862111586</v>
+        <v>0.01885424468379803</v>
       </c>
       <c r="C32">
-        <v>0.02119132625270924</v>
+        <v>0.0225428005985112</v>
       </c>
       <c r="D32">
-        <v>0.09432800899679293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1210813500455316</v>
+      </c>
+      <c r="E32">
+        <v>-0.04763402179270352</v>
+      </c>
+      <c r="F32">
+        <v>0.05662233914105654</v>
+      </c>
+      <c r="G32">
+        <v>0.01881329830190542</v>
+      </c>
+      <c r="H32">
+        <v>-0.03500627611366105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02268741499353798</v>
+        <v>0.02383288535960242</v>
       </c>
       <c r="C33">
-        <v>0.04048428783766618</v>
+        <v>0.04597988481946421</v>
       </c>
       <c r="D33">
-        <v>0.1470947714374145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1382156941665223</v>
+      </c>
+      <c r="E33">
+        <v>-0.02830642370776169</v>
+      </c>
+      <c r="F33">
+        <v>0.02697902293870253</v>
+      </c>
+      <c r="G33">
+        <v>0.01182633477727785</v>
+      </c>
+      <c r="H33">
+        <v>-0.05976922163992267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0300913638199996</v>
+        <v>0.02415204561832371</v>
       </c>
       <c r="C34">
-        <v>0.06632735240029219</v>
+        <v>0.0635559180738391</v>
       </c>
       <c r="D34">
-        <v>0.06970601344424077</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0555977535483104</v>
+      </c>
+      <c r="E34">
+        <v>0.01524496955062621</v>
+      </c>
+      <c r="F34">
+        <v>-0.008502848221864175</v>
+      </c>
+      <c r="G34">
+        <v>0.01612034447321423</v>
+      </c>
+      <c r="H34">
+        <v>-0.05086700403179891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0009679346784384138</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001056295345302533</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.008093821735000419</v>
+      </c>
+      <c r="E35">
+        <v>0.001025206829747148</v>
+      </c>
+      <c r="F35">
+        <v>0.0008339537257986396</v>
+      </c>
+      <c r="G35">
+        <v>0.0006574227518887231</v>
+      </c>
+      <c r="H35">
+        <v>-0.003193817995826287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0179122840041903</v>
+        <v>0.01877647690327054</v>
       </c>
       <c r="C36">
-        <v>0.007490943226181075</v>
+        <v>0.01628423920844265</v>
       </c>
       <c r="D36">
-        <v>0.08823277595176257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08217069067080912</v>
+      </c>
+      <c r="E36">
+        <v>-0.01951136468872802</v>
+      </c>
+      <c r="F36">
+        <v>0.01722157030621885</v>
+      </c>
+      <c r="G36">
+        <v>-0.003219111774025244</v>
+      </c>
+      <c r="H36">
+        <v>-0.04657087871782577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01791448771175677</v>
+        <v>0.02152415219111409</v>
       </c>
       <c r="C38">
-        <v>0.01507218691814544</v>
+        <v>0.01714425808273802</v>
       </c>
       <c r="D38">
-        <v>0.0756876760354299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.07387518443136298</v>
+      </c>
+      <c r="E38">
+        <v>-0.02717819916618682</v>
+      </c>
+      <c r="F38">
+        <v>-0.01483138199894981</v>
+      </c>
+      <c r="G38">
+        <v>0.02589401559762174</v>
+      </c>
+      <c r="H38">
+        <v>-0.04010188790388654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03733433689513069</v>
+        <v>0.0335156995713582</v>
       </c>
       <c r="C39">
-        <v>0.06010923711083804</v>
+        <v>0.07050697888089633</v>
       </c>
       <c r="D39">
-        <v>0.09770910185535903</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1045289967701341</v>
+      </c>
+      <c r="E39">
+        <v>0.006988670087657182</v>
+      </c>
+      <c r="F39">
+        <v>-0.01446631163540989</v>
+      </c>
+      <c r="G39">
+        <v>-0.003876725181790548</v>
+      </c>
+      <c r="H39">
+        <v>-0.09291449790009515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01349621746547723</v>
+        <v>0.01262901281885364</v>
       </c>
       <c r="C40">
-        <v>0.04301100440201327</v>
+        <v>0.03683167639941289</v>
       </c>
       <c r="D40">
-        <v>0.08612384438180416</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09097126750584761</v>
+      </c>
+      <c r="E40">
+        <v>-0.03668327687048348</v>
+      </c>
+      <c r="F40">
+        <v>0.1003874069079316</v>
+      </c>
+      <c r="G40">
+        <v>0.1377685360665252</v>
+      </c>
+      <c r="H40">
+        <v>-0.1459736348314095</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02497675773578752</v>
+        <v>0.02426319942132821</v>
       </c>
       <c r="C41">
-        <v>0.003298792988276917</v>
+        <v>0.009870412228967318</v>
       </c>
       <c r="D41">
-        <v>0.07441078992972047</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05537277108905534</v>
+      </c>
+      <c r="E41">
+        <v>-0.048586005162309</v>
+      </c>
+      <c r="F41">
+        <v>0.01359979185584373</v>
+      </c>
+      <c r="G41">
+        <v>0.02497928976104149</v>
+      </c>
+      <c r="H41">
+        <v>-0.04724398637391862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02485930833279053</v>
+        <v>0.02209514480677111</v>
       </c>
       <c r="C43">
-        <v>0.01301678923524122</v>
+        <v>0.01779029318334585</v>
       </c>
       <c r="D43">
-        <v>0.1138018202031604</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08617642101619323</v>
+      </c>
+      <c r="E43">
+        <v>-0.0243777315304101</v>
+      </c>
+      <c r="F43">
+        <v>0.009693844369039367</v>
+      </c>
+      <c r="G43">
+        <v>0.02870862116110681</v>
+      </c>
+      <c r="H43">
+        <v>-0.05740217629524868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01302162254302541</v>
+        <v>0.01572936336558349</v>
       </c>
       <c r="C44">
-        <v>0.04104689743324145</v>
+        <v>0.03939337935715154</v>
       </c>
       <c r="D44">
-        <v>0.09793152178583928</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1114534530060485</v>
+      </c>
+      <c r="E44">
+        <v>-0.03258814390193389</v>
+      </c>
+      <c r="F44">
+        <v>0.02655987410380196</v>
+      </c>
+      <c r="G44">
+        <v>0.02133244617281782</v>
+      </c>
+      <c r="H44">
+        <v>-0.04404289540898788</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01315831369980684</v>
+        <v>0.01117797418593526</v>
       </c>
       <c r="C46">
-        <v>0.02495755204403588</v>
+        <v>0.03182933722184954</v>
       </c>
       <c r="D46">
-        <v>0.09442722863585454</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09221537120791379</v>
+      </c>
+      <c r="E46">
+        <v>-0.01940262470927775</v>
+      </c>
+      <c r="F46">
+        <v>0.01815930517990166</v>
+      </c>
+      <c r="G46">
+        <v>0.008663765873979009</v>
+      </c>
+      <c r="H46">
+        <v>-0.08841279315932025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09338691114707939</v>
+        <v>0.07864064868788587</v>
       </c>
       <c r="C47">
-        <v>0.08181105658423492</v>
+        <v>0.09573105255758498</v>
       </c>
       <c r="D47">
-        <v>0.04063620277619265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03332386984845553</v>
+      </c>
+      <c r="E47">
+        <v>-0.03349586253630675</v>
+      </c>
+      <c r="F47">
+        <v>0.02970944510164466</v>
+      </c>
+      <c r="G47">
+        <v>0.02042085032897397</v>
+      </c>
+      <c r="H47">
+        <v>0.04474186753738519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01105418745759523</v>
+        <v>0.01339344490425196</v>
       </c>
       <c r="C48">
-        <v>0.0177522604945879</v>
+        <v>0.02136637988879333</v>
       </c>
       <c r="D48">
-        <v>0.07590961475007507</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07830736522289729</v>
+      </c>
+      <c r="E48">
+        <v>-0.05163459096674659</v>
+      </c>
+      <c r="F48">
+        <v>0.02045753207136092</v>
+      </c>
+      <c r="G48">
+        <v>-0.000519470285756772</v>
+      </c>
+      <c r="H48">
+        <v>-0.0638056875151968</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.05794177551588861</v>
+        <v>0.04807251401555052</v>
       </c>
       <c r="C50">
-        <v>0.05942630467416316</v>
+        <v>0.0698181904723512</v>
       </c>
       <c r="D50">
-        <v>0.05869255394348141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05281864853706057</v>
+      </c>
+      <c r="E50">
+        <v>-0.02533257363765581</v>
+      </c>
+      <c r="F50">
+        <v>0.04144161706830674</v>
+      </c>
+      <c r="G50">
+        <v>0.04481758610360226</v>
+      </c>
+      <c r="H50">
+        <v>-0.01994493084291913</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01146652000343905</v>
+        <v>0.01125117570825407</v>
       </c>
       <c r="C51">
-        <v>0.01615764837789705</v>
+        <v>0.02158247919804878</v>
       </c>
       <c r="D51">
-        <v>0.08739811691312944</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09392815750653351</v>
+      </c>
+      <c r="E51">
+        <v>0.01085494709525701</v>
+      </c>
+      <c r="F51">
+        <v>0.01306363479572407</v>
+      </c>
+      <c r="G51">
+        <v>0.004504121686858325</v>
+      </c>
+      <c r="H51">
+        <v>-0.0730192506101608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.089515171153718</v>
+        <v>0.08433407247304346</v>
       </c>
       <c r="C53">
-        <v>0.09262039311958351</v>
+        <v>0.1038717519691704</v>
       </c>
       <c r="D53">
-        <v>0.01512881194760952</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0220426985293292</v>
+      </c>
+      <c r="E53">
+        <v>-0.1040476895790694</v>
+      </c>
+      <c r="F53">
+        <v>0.08206322726759099</v>
+      </c>
+      <c r="G53">
+        <v>-0.04506809901281169</v>
+      </c>
+      <c r="H53">
+        <v>0.01498931164722473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02556411428814576</v>
+        <v>0.02505160455438655</v>
       </c>
       <c r="C54">
-        <v>0.02919625381206234</v>
+        <v>0.03502380102158374</v>
       </c>
       <c r="D54">
-        <v>0.1007231134837469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09144164502038761</v>
+      </c>
+      <c r="E54">
+        <v>-0.02418937358506149</v>
+      </c>
+      <c r="F54">
+        <v>0.008714532380830692</v>
+      </c>
+      <c r="G54">
+        <v>0.04497996613741308</v>
+      </c>
+      <c r="H54">
+        <v>-0.07779853762407384</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09112655384790662</v>
+        <v>0.08194316964579827</v>
       </c>
       <c r="C55">
-        <v>0.07105901898688373</v>
+        <v>0.08512052408936807</v>
       </c>
       <c r="D55">
-        <v>-0.006894573389370448</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.003236832029347196</v>
+      </c>
+      <c r="E55">
+        <v>-0.04915016244627718</v>
+      </c>
+      <c r="F55">
+        <v>0.061549917770722</v>
+      </c>
+      <c r="G55">
+        <v>-0.01524619067022313</v>
+      </c>
+      <c r="H55">
+        <v>0.01033734452364593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1365368939531524</v>
+        <v>0.1213875915739981</v>
       </c>
       <c r="C56">
-        <v>0.1080737801038127</v>
+        <v>0.1336898070024587</v>
       </c>
       <c r="D56">
-        <v>-0.01274818213284701</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01240010165722448</v>
+      </c>
+      <c r="E56">
+        <v>-0.06179236474856218</v>
+      </c>
+      <c r="F56">
+        <v>0.04936697072900569</v>
+      </c>
+      <c r="G56">
+        <v>0.004564011683305264</v>
+      </c>
+      <c r="H56">
+        <v>0.03365563400152509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00693229621097113</v>
+        <v>0.00579359247974533</v>
       </c>
       <c r="C58">
-        <v>0.02246435460131147</v>
+        <v>0.03704311303771402</v>
       </c>
       <c r="D58">
-        <v>0.2745740733568828</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3186442833295879</v>
+      </c>
+      <c r="E58">
+        <v>-0.08306448227206877</v>
+      </c>
+      <c r="F58">
+        <v>0.08695029396331307</v>
+      </c>
+      <c r="G58">
+        <v>0.03072825966433012</v>
+      </c>
+      <c r="H58">
+        <v>0.03520849088929014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1500651623040927</v>
+        <v>0.1873598443409446</v>
       </c>
       <c r="C59">
-        <v>-0.1747785898353804</v>
+        <v>-0.1586727753073595</v>
       </c>
       <c r="D59">
-        <v>0.04816338312907283</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05924832436105695</v>
+      </c>
+      <c r="E59">
+        <v>-0.03486683741457955</v>
+      </c>
+      <c r="F59">
+        <v>-0.03519119743313786</v>
+      </c>
+      <c r="G59">
+        <v>-0.004243138425345671</v>
+      </c>
+      <c r="H59">
+        <v>0.02268147174349475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2311989632106102</v>
+        <v>0.2188602454609722</v>
       </c>
       <c r="C60">
-        <v>0.06667385261602655</v>
+        <v>0.1036255897862786</v>
       </c>
       <c r="D60">
-        <v>0.1730624899417366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1212592887332574</v>
+      </c>
+      <c r="E60">
+        <v>0.3193012032045823</v>
+      </c>
+      <c r="F60">
+        <v>-0.06324297198561812</v>
+      </c>
+      <c r="G60">
+        <v>-0.07209846773863074</v>
+      </c>
+      <c r="H60">
+        <v>0.189718905456557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04335290378282909</v>
+        <v>0.03851456103694171</v>
       </c>
       <c r="C61">
-        <v>0.05429806793442932</v>
+        <v>0.06393311540115053</v>
       </c>
       <c r="D61">
-        <v>0.1082144679313832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09480975347211344</v>
+      </c>
+      <c r="E61">
+        <v>0.01062331274104535</v>
+      </c>
+      <c r="F61">
+        <v>-0.008806299999182225</v>
+      </c>
+      <c r="G61">
+        <v>0.00507842109846468</v>
+      </c>
+      <c r="H61">
+        <v>-0.05102819822641475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01600347738513648</v>
+        <v>0.01556254907274024</v>
       </c>
       <c r="C63">
-        <v>0.02177673605249695</v>
+        <v>0.0311864127358425</v>
       </c>
       <c r="D63">
-        <v>0.08264123615498928</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07775651390033252</v>
+      </c>
+      <c r="E63">
+        <v>-0.003628552696300047</v>
+      </c>
+      <c r="F63">
+        <v>0.01521869857696724</v>
+      </c>
+      <c r="G63">
+        <v>-0.005169655863932614</v>
+      </c>
+      <c r="H63">
+        <v>-0.05157090300709161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05642061978803702</v>
+        <v>0.04698543214801464</v>
       </c>
       <c r="C64">
-        <v>0.07433745535000288</v>
+        <v>0.08165171540571968</v>
       </c>
       <c r="D64">
-        <v>0.05277525023880311</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05588370964236127</v>
+      </c>
+      <c r="E64">
+        <v>-0.01635152886977362</v>
+      </c>
+      <c r="F64">
+        <v>0.006530208677723039</v>
+      </c>
+      <c r="G64">
+        <v>-0.0579445153150757</v>
+      </c>
+      <c r="H64">
+        <v>-0.05946194412968691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03798654841214527</v>
+        <v>0.03771016021400297</v>
       </c>
       <c r="C65">
-        <v>0.01814080257443363</v>
+        <v>0.03052939276298073</v>
       </c>
       <c r="D65">
-        <v>0.1242946040074651</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1139886106030119</v>
+      </c>
+      <c r="E65">
+        <v>0.009530950237989206</v>
+      </c>
+      <c r="F65">
+        <v>0.01134358822189174</v>
+      </c>
+      <c r="G65">
+        <v>0.0007252526687345506</v>
+      </c>
+      <c r="H65">
+        <v>-0.02689440952424782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03945749584666761</v>
+        <v>0.03600352733119112</v>
       </c>
       <c r="C66">
-        <v>0.06627750159157819</v>
+        <v>0.07937148348323025</v>
       </c>
       <c r="D66">
-        <v>0.1147153307123621</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.129731321395214</v>
+      </c>
+      <c r="E66">
+        <v>0.002577024594264855</v>
+      </c>
+      <c r="F66">
+        <v>-0.005959440833175115</v>
+      </c>
+      <c r="G66">
+        <v>0.01002219295774841</v>
+      </c>
+      <c r="H66">
+        <v>-0.05688911335888028</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03846759373631355</v>
+        <v>0.03809914708202791</v>
       </c>
       <c r="C67">
-        <v>0.02104220013043358</v>
+        <v>0.02492652581997188</v>
       </c>
       <c r="D67">
-        <v>0.04196273050628289</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03230991594269554</v>
+      </c>
+      <c r="E67">
+        <v>-0.00659298506277903</v>
+      </c>
+      <c r="F67">
+        <v>-0.01954272725612819</v>
+      </c>
+      <c r="G67">
+        <v>0.02260211673957442</v>
+      </c>
+      <c r="H67">
+        <v>-0.04071759121924268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1731037124201366</v>
+        <v>0.2086268275803939</v>
       </c>
       <c r="C68">
-        <v>-0.2137603412335855</v>
+        <v>-0.1873048317008396</v>
       </c>
       <c r="D68">
-        <v>0.02595018749476511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02832258479533644</v>
+      </c>
+      <c r="E68">
+        <v>-0.01924659924582135</v>
+      </c>
+      <c r="F68">
+        <v>0.03337675791651144</v>
+      </c>
+      <c r="G68">
+        <v>0.006466429156882176</v>
+      </c>
+      <c r="H68">
+        <v>0.005594325919893982</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08398468224156688</v>
+        <v>0.06975259028864143</v>
       </c>
       <c r="C69">
-        <v>0.09764025774307866</v>
+        <v>0.1028512842061784</v>
       </c>
       <c r="D69">
-        <v>0.06632266806801274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04841763751865932</v>
+      </c>
+      <c r="E69">
+        <v>-0.0194694811333085</v>
+      </c>
+      <c r="F69">
+        <v>0.01296145324471071</v>
+      </c>
+      <c r="G69">
+        <v>0.01267889264883962</v>
+      </c>
+      <c r="H69">
+        <v>0.01241206827343801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1550592751180942</v>
+        <v>0.1927922762271726</v>
       </c>
       <c r="C71">
-        <v>-0.2154920287244581</v>
+        <v>-0.1949139622619407</v>
       </c>
       <c r="D71">
-        <v>0.03205479652172007</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0393724620351877</v>
+      </c>
+      <c r="E71">
+        <v>-0.0465079768450272</v>
+      </c>
+      <c r="F71">
+        <v>0.0662619292332091</v>
+      </c>
+      <c r="G71">
+        <v>0.03565458404565088</v>
+      </c>
+      <c r="H71">
+        <v>0.01243374274630364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1058719024935749</v>
+        <v>0.09861805936938785</v>
       </c>
       <c r="C72">
-        <v>0.05592428270730644</v>
+        <v>0.07971678581590001</v>
       </c>
       <c r="D72">
-        <v>0.09187682324570318</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09352330460592828</v>
+      </c>
+      <c r="E72">
+        <v>0.0585587875362845</v>
+      </c>
+      <c r="F72">
+        <v>0.0382622243900432</v>
+      </c>
+      <c r="G72">
+        <v>-0.02782021436286223</v>
+      </c>
+      <c r="H72">
+        <v>-0.027691412064056</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2491657615530296</v>
+        <v>0.2271287381853833</v>
       </c>
       <c r="C73">
-        <v>0.04090094410288758</v>
+        <v>0.1006611577532838</v>
       </c>
       <c r="D73">
-        <v>0.2529687350353505</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1317603058122237</v>
+      </c>
+      <c r="E73">
+        <v>0.6231905689766214</v>
+      </c>
+      <c r="F73">
+        <v>-0.1479078203561268</v>
+      </c>
+      <c r="G73">
+        <v>-0.08790121776389494</v>
+      </c>
+      <c r="H73">
+        <v>0.2273394441939174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1056526577949814</v>
+        <v>0.09218685107936557</v>
       </c>
       <c r="C74">
-        <v>0.0752788326146836</v>
+        <v>0.09515234102565216</v>
       </c>
       <c r="D74">
-        <v>-0.01069101685119986</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01389212051847104</v>
+      </c>
+      <c r="E74">
+        <v>-0.04900311207267485</v>
+      </c>
+      <c r="F74">
+        <v>0.07174475597391265</v>
+      </c>
+      <c r="G74">
+        <v>-0.04297754256419142</v>
+      </c>
+      <c r="H74">
+        <v>0.04332126046337981</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2507145964771946</v>
+        <v>0.2200488739184419</v>
       </c>
       <c r="C75">
-        <v>0.1362596686269787</v>
+        <v>0.1760284505417355</v>
       </c>
       <c r="D75">
-        <v>-0.08057430992176431</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1016209690479118</v>
+      </c>
+      <c r="E75">
+        <v>-0.1158083877630386</v>
+      </c>
+      <c r="F75">
+        <v>0.01823432864651479</v>
+      </c>
+      <c r="G75">
+        <v>-0.01394047713814573</v>
+      </c>
+      <c r="H75">
+        <v>0.06595868170900067</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1374572791208677</v>
+        <v>0.1201556423311775</v>
       </c>
       <c r="C76">
-        <v>0.09772537634817824</v>
+        <v>0.1194597305844876</v>
       </c>
       <c r="D76">
-        <v>-0.003137661910263368</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.008241945940722776</v>
+      </c>
+      <c r="E76">
+        <v>-0.1034158614244148</v>
+      </c>
+      <c r="F76">
+        <v>0.03954279528913519</v>
+      </c>
+      <c r="G76">
+        <v>-0.0201220059490109</v>
+      </c>
+      <c r="H76">
+        <v>-0.02809498916311001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.04811567116453126</v>
+        <v>0.0520464124330965</v>
       </c>
       <c r="C77">
-        <v>0.06606659076282413</v>
+        <v>0.07754240399195389</v>
       </c>
       <c r="D77">
-        <v>0.04571383809120648</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1345045832456886</v>
+      </c>
+      <c r="E77">
+        <v>-0.4108563052310252</v>
+      </c>
+      <c r="F77">
+        <v>-0.3767434864327026</v>
+      </c>
+      <c r="G77">
+        <v>0.3410724082949269</v>
+      </c>
+      <c r="H77">
+        <v>0.6417779997873236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04084783346094066</v>
+        <v>0.04324884109602543</v>
       </c>
       <c r="C78">
-        <v>0.06058405390680545</v>
+        <v>0.0681120108393356</v>
       </c>
       <c r="D78">
-        <v>0.1293983181547095</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1377864252871091</v>
+      </c>
+      <c r="E78">
+        <v>-0.005500311922772209</v>
+      </c>
+      <c r="F78">
+        <v>0.03861846595680665</v>
+      </c>
+      <c r="G78">
+        <v>0.008417779209917247</v>
+      </c>
+      <c r="H78">
+        <v>0.01611772147182104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.04522664033603812</v>
+        <v>0.04825636448023736</v>
       </c>
       <c r="C79">
-        <v>0.09385529836708158</v>
+        <v>0.1028849126497908</v>
       </c>
       <c r="D79">
-        <v>-0.09646739254052478</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0246960851567346</v>
+      </c>
+      <c r="E79">
+        <v>-0.2477214743843706</v>
+      </c>
+      <c r="F79">
+        <v>0.3359728461660603</v>
+      </c>
+      <c r="G79">
+        <v>-0.7120332767963531</v>
+      </c>
+      <c r="H79">
+        <v>0.2929596743530592</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02425343018381197</v>
+        <v>0.02254661658683354</v>
       </c>
       <c r="C80">
-        <v>0.04738301556897034</v>
+        <v>0.04603483076595016</v>
       </c>
       <c r="D80">
-        <v>0.0218338595935705</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01955757943377829</v>
+      </c>
+      <c r="E80">
+        <v>-0.01314240930520287</v>
+      </c>
+      <c r="F80">
+        <v>0.007205533970075111</v>
+      </c>
+      <c r="G80">
+        <v>0.001690911359041806</v>
+      </c>
+      <c r="H80">
+        <v>-0.07371190096623399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1375851825841251</v>
+        <v>0.1157931050648786</v>
       </c>
       <c r="C81">
-        <v>0.1071520882496019</v>
+        <v>0.1267381729906767</v>
       </c>
       <c r="D81">
-        <v>-0.07648001341428994</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07726393560836911</v>
+      </c>
+      <c r="E81">
+        <v>-0.114200090437244</v>
+      </c>
+      <c r="F81">
+        <v>0.05302511825437235</v>
+      </c>
+      <c r="G81">
+        <v>-0.006078171356646807</v>
+      </c>
+      <c r="H81">
+        <v>-0.01091488137610125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.3181663933973767</v>
+        <v>0.2568767845833022</v>
       </c>
       <c r="C82">
-        <v>0.2682628297887299</v>
+        <v>0.2853090819453621</v>
       </c>
       <c r="D82">
-        <v>-0.2538543886441312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2526048472977455</v>
+      </c>
+      <c r="E82">
+        <v>0.02676338030623321</v>
+      </c>
+      <c r="F82">
+        <v>0.02632434049920683</v>
+      </c>
+      <c r="G82">
+        <v>0.2574358119636464</v>
+      </c>
+      <c r="H82">
+        <v>0.006012910831276207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02806166064724294</v>
+        <v>0.0194943628875956</v>
       </c>
       <c r="C83">
-        <v>0.05662847956353034</v>
+        <v>0.05575558232708646</v>
       </c>
       <c r="D83">
-        <v>0.04578418420026418</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04733710665028361</v>
+      </c>
+      <c r="E83">
+        <v>-0.03923030843143082</v>
+      </c>
+      <c r="F83">
+        <v>-0.06941942905392072</v>
+      </c>
+      <c r="G83">
+        <v>0.05757580767660967</v>
+      </c>
+      <c r="H83">
+        <v>0.03671078390104206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000720867356013884</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004885095353442609</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01927611848140403</v>
+      </c>
+      <c r="E84">
+        <v>-0.01475951149431257</v>
+      </c>
+      <c r="F84">
+        <v>0.01621433173748329</v>
+      </c>
+      <c r="G84">
+        <v>0.002545521122337932</v>
+      </c>
+      <c r="H84">
+        <v>-0.02197803858433854</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1701918813247605</v>
+        <v>0.1471355556623784</v>
       </c>
       <c r="C85">
-        <v>0.1113167604503669</v>
+        <v>0.1426075421868201</v>
       </c>
       <c r="D85">
-        <v>-0.03691522294102618</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.05665821133506328</v>
+      </c>
+      <c r="E85">
+        <v>-0.03736854559850852</v>
+      </c>
+      <c r="F85">
+        <v>0.05650336573735484</v>
+      </c>
+      <c r="G85">
+        <v>-0.09898820834743698</v>
+      </c>
+      <c r="H85">
+        <v>0.007132553726386213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01945254718085513</v>
+        <v>0.01926171081413445</v>
       </c>
       <c r="C86">
-        <v>0.03779433116777607</v>
+        <v>0.03631436569331053</v>
       </c>
       <c r="D86">
-        <v>0.1236054828489553</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1209161552465334</v>
+      </c>
+      <c r="E86">
+        <v>-0.01630418790244915</v>
+      </c>
+      <c r="F86">
+        <v>-0.001849378281261829</v>
+      </c>
+      <c r="G86">
+        <v>0.08106562488510534</v>
+      </c>
+      <c r="H86">
+        <v>0.04558140643518156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02300996733778281</v>
+        <v>0.03037415484936913</v>
       </c>
       <c r="C87">
-        <v>0.02016698841131597</v>
+        <v>0.02983599437269187</v>
       </c>
       <c r="D87">
-        <v>0.1092493025106573</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1367103350631547</v>
+      </c>
+      <c r="E87">
+        <v>-0.05027919024987679</v>
+      </c>
+      <c r="F87">
+        <v>0.02201592143981885</v>
+      </c>
+      <c r="G87">
+        <v>0.01727951795425558</v>
+      </c>
+      <c r="H87">
+        <v>-0.0532227114911528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07437400677458247</v>
+        <v>0.06349979001244556</v>
       </c>
       <c r="C88">
-        <v>0.04337183306699322</v>
+        <v>0.05768947389758772</v>
       </c>
       <c r="D88">
-        <v>0.04111110877080785</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0179547576613748</v>
+      </c>
+      <c r="E88">
+        <v>-0.006657601043060615</v>
+      </c>
+      <c r="F88">
+        <v>0.02957262383865039</v>
+      </c>
+      <c r="G88">
+        <v>0.001076815446086587</v>
+      </c>
+      <c r="H88">
+        <v>-0.05213366004174253</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2417079923539769</v>
+        <v>0.2966507380878134</v>
       </c>
       <c r="C89">
-        <v>-0.3919615051408637</v>
+        <v>-0.3336765937816306</v>
       </c>
       <c r="D89">
-        <v>-0.001059847292067413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.007019828445051912</v>
+      </c>
+      <c r="E89">
+        <v>-0.05980528225499937</v>
+      </c>
+      <c r="F89">
+        <v>-0.01231424783748712</v>
+      </c>
+      <c r="G89">
+        <v>-0.03556433442894395</v>
+      </c>
+      <c r="H89">
+        <v>-0.119079303564032</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2111289914689968</v>
+        <v>0.2498289580067831</v>
       </c>
       <c r="C90">
-        <v>-0.2907702977125874</v>
+        <v>-0.23861471321116</v>
       </c>
       <c r="D90">
-        <v>0.01340870457066118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0258498664224981</v>
+      </c>
+      <c r="E90">
+        <v>-0.04180270209751159</v>
+      </c>
+      <c r="F90">
+        <v>-0.004889873546999021</v>
+      </c>
+      <c r="G90">
+        <v>0.05324884206541318</v>
+      </c>
+      <c r="H90">
+        <v>-0.03964860094439571</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1750934677232125</v>
+        <v>0.147165735085703</v>
       </c>
       <c r="C91">
-        <v>0.1505530032060129</v>
+        <v>0.1642443045197855</v>
       </c>
       <c r="D91">
-        <v>-0.09105835845285956</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08787297537885658</v>
+      </c>
+      <c r="E91">
+        <v>-0.122592163645493</v>
+      </c>
+      <c r="F91">
+        <v>0.05483819149189026</v>
+      </c>
+      <c r="G91">
+        <v>-0.06241059728453942</v>
+      </c>
+      <c r="H91">
+        <v>0.04745379635223369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1851318737633765</v>
+        <v>0.2383053177345009</v>
       </c>
       <c r="C92">
-        <v>-0.2758491015760361</v>
+        <v>-0.2607564732366717</v>
       </c>
       <c r="D92">
-        <v>0.02347138028488534</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03438073999960415</v>
+      </c>
+      <c r="E92">
+        <v>-0.0976090093721053</v>
+      </c>
+      <c r="F92">
+        <v>0.001758596120435684</v>
+      </c>
+      <c r="G92">
+        <v>0.03370160190871222</v>
+      </c>
+      <c r="H92">
+        <v>-0.04650567055318433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2327892621799599</v>
+        <v>0.2663774943899128</v>
       </c>
       <c r="C93">
-        <v>-0.3043905778072553</v>
+        <v>-0.2500599096953998</v>
       </c>
       <c r="D93">
-        <v>0.02190219093691933</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001189161720841191</v>
+      </c>
+      <c r="E93">
+        <v>0.01299043247065172</v>
+      </c>
+      <c r="F93">
+        <v>0.027678568927621</v>
+      </c>
+      <c r="G93">
+        <v>-0.01193520614284413</v>
+      </c>
+      <c r="H93">
+        <v>-0.001288868885214877</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3724092534237561</v>
+        <v>0.3202001649470336</v>
       </c>
       <c r="C94">
-        <v>0.1952570703241353</v>
+        <v>0.2620013695780565</v>
       </c>
       <c r="D94">
-        <v>-0.408124597472543</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.414126271482599</v>
+      </c>
+      <c r="E94">
+        <v>-0.03563378408092704</v>
+      </c>
+      <c r="F94">
+        <v>-0.04462478159689776</v>
+      </c>
+      <c r="G94">
+        <v>0.1201219950368494</v>
+      </c>
+      <c r="H94">
+        <v>-0.2899598726197654</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07819889182659394</v>
+        <v>0.07315905391254622</v>
       </c>
       <c r="C95">
-        <v>0.0667033990491339</v>
+        <v>0.07635747422459875</v>
       </c>
       <c r="D95">
-        <v>0.1360567461653228</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1055453030514093</v>
+      </c>
+      <c r="E95">
+        <v>-0.1568648153261249</v>
+      </c>
+      <c r="F95">
+        <v>-0.7711673205352373</v>
+      </c>
+      <c r="G95">
+        <v>-0.4184330484562144</v>
+      </c>
+      <c r="H95">
+        <v>-0.2877747145461206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>3.989493583276488e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-4.681074929903822e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-9.115869065989251e-06</v>
+      </c>
+      <c r="E97">
+        <v>-0.0001221479034840295</v>
+      </c>
+      <c r="F97">
+        <v>0.0001880034603704145</v>
+      </c>
+      <c r="G97">
+        <v>8.552929423051078e-05</v>
+      </c>
+      <c r="H97">
+        <v>0.0002168002388227692</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1653206702824769</v>
+        <v>0.159481807105981</v>
       </c>
       <c r="C98">
-        <v>0.04359576190042854</v>
+        <v>0.07601274047618223</v>
       </c>
       <c r="D98">
-        <v>0.1449024661125047</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1054916472745715</v>
+      </c>
+      <c r="E98">
+        <v>0.3158397672821203</v>
+      </c>
+      <c r="F98">
+        <v>-0.005371182941789555</v>
+      </c>
+      <c r="G98">
+        <v>-0.04197916366508531</v>
+      </c>
+      <c r="H98">
+        <v>0.1414450025547808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001137578702171151</v>
+        <v>0.004748171657243969</v>
       </c>
       <c r="C101">
-        <v>0.0207878497354394</v>
+        <v>0.02232700666334824</v>
       </c>
       <c r="D101">
-        <v>0.0870847981073274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.09618247463484457</v>
+      </c>
+      <c r="E101">
+        <v>-0.007794455360203173</v>
+      </c>
+      <c r="F101">
+        <v>0.03835521793788742</v>
+      </c>
+      <c r="G101">
+        <v>0.01281931606035882</v>
+      </c>
+      <c r="H101">
+        <v>-0.08699657565243565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.124634964268812</v>
+        <v>0.09950774227576065</v>
       </c>
       <c r="C102">
-        <v>0.1220929469199605</v>
+        <v>0.1254387863552631</v>
       </c>
       <c r="D102">
-        <v>-0.06094826696459926</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06936863068619929</v>
+      </c>
+      <c r="E102">
+        <v>-0.03519062946049067</v>
+      </c>
+      <c r="F102">
+        <v>-0.01231097752015625</v>
+      </c>
+      <c r="G102">
+        <v>0.02234426195299511</v>
+      </c>
+      <c r="H102">
+        <v>0.01100102954056335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
